--- a/outputs-HGR-r202/g__RC9.xlsx
+++ b/outputs-HGR-r202/g__RC9.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -577,6 +582,11 @@
           <t>s__RC9 sp900543205</t>
         </is>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900543205</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -634,6 +644,11 @@
           <t>s__RC9 sp000434935</t>
         </is>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>s__RC9 sp000434935</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -691,6 +706,11 @@
           <t>s__RC9 sp000434935</t>
         </is>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>s__RC9 sp000434935</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -748,6 +768,11 @@
           <t>s__RC9 sp000434935</t>
         </is>
       </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>s__RC9 sp000434935</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -805,6 +830,11 @@
           <t>s__RC9 sp000434935</t>
         </is>
       </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>s__RC9 sp000434935</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -862,6 +892,11 @@
           <t>s__RC9 sp000434935</t>
         </is>
       </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>s__RC9 sp000434935</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -919,6 +954,11 @@
           <t>s__RC9 sp000434935</t>
         </is>
       </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>s__RC9 sp000434935</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -976,6 +1016,11 @@
           <t>s__RC9 sp000434935</t>
         </is>
       </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>s__RC9 sp000434935</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1033,6 +1078,11 @@
           <t>s__RC9 sp000434935</t>
         </is>
       </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>s__RC9 sp000434935</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1086,6 +1136,11 @@
         <v>0.9681235385054628</v>
       </c>
       <c r="Q11" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900541925</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>s__RC9 sp900541925</t>
         </is>
